--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H2">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I2">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J2">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>2.470743932734</v>
+        <v>3.259476744101223</v>
       </c>
       <c r="R2">
-        <v>22.236695394606</v>
+        <v>29.335290696911</v>
       </c>
       <c r="S2">
-        <v>0.002849621557234393</v>
+        <v>0.004403485401459056</v>
       </c>
       <c r="T2">
-        <v>0.002849621557234393</v>
+        <v>0.004403485401459056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H3">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I3">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J3">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>2.833638440086667</v>
+        <v>5.436383039298889</v>
       </c>
       <c r="R3">
-        <v>25.50274596078</v>
+        <v>48.92744735369</v>
       </c>
       <c r="S3">
-        <v>0.003268164327876683</v>
+        <v>0.007344440604957681</v>
       </c>
       <c r="T3">
-        <v>0.003268164327876683</v>
+        <v>0.007344440604957679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H4">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I4">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J4">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>0.3147938358986667</v>
+        <v>0.5886307558952223</v>
       </c>
       <c r="R4">
-        <v>2.833144523088</v>
+        <v>5.297676803057001</v>
       </c>
       <c r="S4">
-        <v>0.0003630660745440843</v>
+        <v>0.000795227928877018</v>
       </c>
       <c r="T4">
-        <v>0.0003630660745440844</v>
+        <v>0.0007952279288770179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H5">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I5">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J5">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>0.1902770553786667</v>
+        <v>0.1196185673635556</v>
       </c>
       <c r="R5">
-        <v>1.712493498408</v>
+        <v>1.076567106272</v>
       </c>
       <c r="S5">
-        <v>0.0002194551979549497</v>
+        <v>0.0001616022007465214</v>
       </c>
       <c r="T5">
-        <v>0.0002194551979549497</v>
+        <v>0.0001616022007465214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>288.359337</v>
       </c>
       <c r="I6">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J6">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>363.182721644981</v>
+        <v>249.7351737652403</v>
       </c>
       <c r="R6">
-        <v>3268.644494804829</v>
+        <v>2247.616563887163</v>
       </c>
       <c r="S6">
-        <v>0.4188751813181188</v>
+        <v>0.3373870342521227</v>
       </c>
       <c r="T6">
-        <v>0.4188751813181188</v>
+        <v>0.3373870342521227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>288.359337</v>
       </c>
       <c r="I7">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J7">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>416.5257707178635</v>
+        <v>416.5257707178633</v>
       </c>
       <c r="R7">
-        <v>3748.731936460771</v>
+        <v>3748.73193646077</v>
       </c>
       <c r="S7">
-        <v>0.4803981503934669</v>
+        <v>0.5627176674927777</v>
       </c>
       <c r="T7">
-        <v>0.4803981503934669</v>
+        <v>0.5627176674927776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>288.359337</v>
       </c>
       <c r="I8">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J8">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>46.27257424942133</v>
+        <v>45.09981682584234</v>
       </c>
       <c r="R8">
-        <v>416.453168244792</v>
+        <v>405.8983514325811</v>
       </c>
       <c r="S8">
-        <v>0.05336826829479301</v>
+        <v>0.06092891607847192</v>
       </c>
       <c r="T8">
-        <v>0.05336826829479302</v>
+        <v>0.06092891607847192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>288.359337</v>
       </c>
       <c r="I9">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J9">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>27.96944593224134</v>
+        <v>9.164956847797333</v>
       </c>
       <c r="R9">
-        <v>251.725013390172</v>
+        <v>82.484611630176</v>
       </c>
       <c r="S9">
-        <v>0.0322584364233254</v>
+        <v>0.01238166640007924</v>
       </c>
       <c r="T9">
-        <v>0.0322584364233254</v>
+        <v>0.01238166640007923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H10">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I10">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J10">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>2.212763453131</v>
+        <v>2.991208275685556</v>
       </c>
       <c r="R10">
-        <v>19.914871078179</v>
+        <v>26.92087448117</v>
       </c>
       <c r="S10">
-        <v>0.002552080915210474</v>
+        <v>0.004041060270959803</v>
       </c>
       <c r="T10">
-        <v>0.002552080915210474</v>
+        <v>0.004041060270959802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H11">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I11">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J11">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>2.537766660696667</v>
+        <v>4.988946144922222</v>
       </c>
       <c r="R11">
-        <v>22.83989994627</v>
+        <v>44.90051530429999</v>
       </c>
       <c r="S11">
-        <v>0.002926921923288812</v>
+        <v>0.006739962651240873</v>
       </c>
       <c r="T11">
-        <v>0.002926921923288812</v>
+        <v>0.006739962651240872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H12">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I12">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J12">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>0.2819249239546666</v>
+        <v>0.5401840008655556</v>
       </c>
       <c r="R12">
-        <v>2.537324315592</v>
+        <v>4.86165600779</v>
       </c>
       <c r="S12">
-        <v>0.0003251568607249017</v>
+        <v>0.0007297773687810521</v>
       </c>
       <c r="T12">
-        <v>0.0003251568607249017</v>
+        <v>0.0007297773687810519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H13">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I13">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J13">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>0.1704094497746667</v>
+        <v>0.1097734626488889</v>
       </c>
       <c r="R13">
-        <v>1.533685047972</v>
+        <v>0.9879611638399999</v>
       </c>
       <c r="S13">
-        <v>0.0001965409831430806</v>
+        <v>0.0001483016687009017</v>
       </c>
       <c r="T13">
-        <v>0.0001965409831430806</v>
+        <v>0.0001483016687009017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H14">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I14">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J14">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.8846169550376667</v>
+        <v>0.5697735466227777</v>
       </c>
       <c r="R14">
-        <v>7.961552595339</v>
+        <v>5.127961919604999</v>
       </c>
       <c r="S14">
-        <v>0.001020269041875565</v>
+        <v>0.0007697522307013082</v>
       </c>
       <c r="T14">
-        <v>0.001020269041875565</v>
+        <v>0.000769752230701308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H15">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I15">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J15">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>1.014546499674444</v>
+        <v>0.9503081286611108</v>
       </c>
       <c r="R15">
-        <v>9.130918497070001</v>
+        <v>8.552773157949998</v>
       </c>
       <c r="S15">
-        <v>0.001170122705953538</v>
+        <v>0.001283846549609597</v>
       </c>
       <c r="T15">
-        <v>0.001170122705953538</v>
+        <v>0.001283846549609596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H16">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I16">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J16">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.1127077399191111</v>
+        <v>0.1028957282927778</v>
       </c>
       <c r="R16">
-        <v>1.014369659272</v>
+        <v>0.9260615546349998</v>
       </c>
       <c r="S16">
-        <v>0.000129990971984406</v>
+        <v>0.0001390099923951701</v>
       </c>
       <c r="T16">
-        <v>0.000129990971984406</v>
+        <v>0.00013900999239517</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H17">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I17">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J17">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.06812616520577777</v>
+        <v>0.02090994988444444</v>
       </c>
       <c r="R17">
-        <v>0.6131354868519999</v>
+        <v>0.18818954896</v>
       </c>
       <c r="S17">
-        <v>7.857301050509002E-05</v>
+        <v>2.824890811938622E-05</v>
       </c>
       <c r="T17">
-        <v>7.857301050509001E-05</v>
+        <v>2.824890811938621E-05</v>
       </c>
     </row>
   </sheetData>
